--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/INVENTARIO ALMACEN  AGOSTO  2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #08  AGOSTO 2022/INVENTARIO ALMACEN  AGOSTO  2022.xlsx
@@ -305,7 +305,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="135">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -802,7 +802,16 @@
     <t>SESOS DE CERDO MARQUETA</t>
   </si>
   <si>
-    <t xml:space="preserve">FALTANTE DE UNA CAJA </t>
+    <t xml:space="preserve"> OBSERVACIONES </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO ME REPORTARON ESTA CARGA Y ES DEL 26 DE AGOSTO </t>
+  </si>
+  <si>
+    <t>ME DA ESE FALTANTE  Y TIENE   ERROR EN EL TRASPSO 0589 A1</t>
+  </si>
+  <si>
+    <t>ME DA ESE FALTANTE  Y TIENE  ERROR EN EL TRASPASO 0758 A1</t>
   </si>
 </sst>
 </file>
@@ -813,7 +822,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1206,8 +1215,16 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1304,12 +1321,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="82">
     <border>
@@ -2311,7 +2322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="536">
+  <cellXfs count="550">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3341,9 +3352,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3402,8 +3410,71 @@
     <xf numFmtId="2" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3435,69 +3506,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3543,6 +3551,27 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3567,38 +3596,50 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="17" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="33" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="15" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="33" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3609,13 +3650,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF66FF99"/>
       <color rgb="FFFFCCFF"/>
-      <color rgb="FF00FFFF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFF9900"/>
-      <color rgb="FFCC99FF"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FF99FF99"/>
       <color rgb="FF660033"/>
@@ -3925,10 +3966,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3940,50 +3981,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44591</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -4005,7 +4046,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -4062,8 +4103,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -4101,8 +4142,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -4185,8 +4226,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="482"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="471"/>
     </row>
     <row r="9" spans="2:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
@@ -4267,8 +4308,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="474"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="494"/>
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
@@ -4419,8 +4460,8 @@
         <f>L14+I14</f>
         <v>-34</v>
       </c>
-      <c r="O14" s="475"/>
-      <c r="P14" s="475"/>
+      <c r="O14" s="495"/>
+      <c r="P14" s="495"/>
       <c r="Q14" s="163" t="s">
         <v>47</v>
       </c>
@@ -4634,8 +4675,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O19" s="476"/>
-      <c r="P19" s="476"/>
+      <c r="O19" s="496"/>
+      <c r="P19" s="496"/>
       <c r="Q19" s="163" t="s">
         <v>49</v>
       </c>
@@ -4722,8 +4763,8 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="O21" s="477"/>
-      <c r="P21" s="477"/>
+      <c r="O21" s="497"/>
+      <c r="P21" s="497"/>
       <c r="Q21" s="163" t="s">
         <v>50</v>
       </c>
@@ -4767,8 +4808,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="478"/>
-      <c r="P22" s="479"/>
+      <c r="O22" s="498"/>
+      <c r="P22" s="499"/>
       <c r="Q22" s="150"/>
       <c r="R22" s="53"/>
       <c r="S22" s="53"/>
@@ -4874,8 +4915,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O25" s="480"/>
-      <c r="P25" s="480"/>
+      <c r="O25" s="500"/>
+      <c r="P25" s="500"/>
       <c r="Q25" s="163" t="s">
         <v>51</v>
       </c>
@@ -5267,10 +5308,10 @@
     <row r="37" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="472" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="472"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H30)</f>
         <v>35456.6</v>
@@ -5299,7 +5340,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="471" t="s">
+      <c r="B40" s="491" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="155" t="s">
@@ -5320,7 +5361,7 @@
       <c r="N40" s="160"/>
     </row>
     <row r="41" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="471"/>
+      <c r="B41" s="491"/>
       <c r="C41" s="155" t="s">
         <v>48</v>
       </c>
@@ -5339,7 +5380,7 @@
       <c r="N41" s="160"/>
     </row>
     <row r="42" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="471"/>
+      <c r="B42" s="491"/>
       <c r="C42" s="155" t="s">
         <v>49</v>
       </c>
@@ -5358,7 +5399,7 @@
       <c r="N42" s="160"/>
     </row>
     <row r="43" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="471"/>
+      <c r="B43" s="491"/>
       <c r="C43" s="155" t="s">
         <v>50</v>
       </c>
@@ -5377,7 +5418,7 @@
       <c r="N43" s="160"/>
     </row>
     <row r="44" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="471"/>
+      <c r="B44" s="491"/>
       <c r="C44" s="155" t="s">
         <v>51</v>
       </c>
@@ -5396,7 +5437,7 @@
       <c r="N44" s="160"/>
     </row>
     <row r="45" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="471"/>
+      <c r="B45" s="491"/>
       <c r="C45" s="155" t="s">
         <v>54</v>
       </c>
@@ -5422,6 +5463,14 @@
     <sortCondition ref="B7:B36"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O25:P25"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -5434,14 +5483,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="K2:L3"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O25:P25"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -5497,10 +5538,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -5512,50 +5553,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44619</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -5577,7 +5618,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -5634,8 +5675,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -5673,8 +5714,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -5759,8 +5800,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -5832,8 +5873,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -5957,8 +5998,8 @@
         <f t="shared" ref="N13:N33" si="2">L13-I13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="199" t="s">
         <v>64</v>
       </c>
@@ -6154,8 +6195,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="476"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -6236,8 +6277,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="477"/>
-      <c r="P20" s="477"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -6271,8 +6312,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="478"/>
-      <c r="P21" s="478"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -6380,8 +6421,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="480"/>
-      <c r="P24" s="480"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="1"/>
     </row>
@@ -6782,10 +6823,10 @@
     <row r="36" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="126"/>
       <c r="D36" s="128"/>
-      <c r="F36" s="472" t="s">
+      <c r="F36" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G36" s="472"/>
+      <c r="G36" s="492"/>
       <c r="H36" s="129">
         <f>SUM(H5:H29)</f>
         <v>22064.760000000002</v>
@@ -6823,7 +6864,7 @@
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="471" t="s">
+      <c r="B39" s="491" t="s">
         <v>58</v>
       </c>
       <c r="C39" s="155" t="s">
@@ -6844,7 +6885,7 @@
       <c r="N39" s="212"/>
     </row>
     <row r="40" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="471"/>
+      <c r="B40" s="491"/>
       <c r="C40" s="204"/>
       <c r="D40" s="213"/>
       <c r="E40" s="214"/>
@@ -6859,7 +6900,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="471"/>
+      <c r="B41" s="491"/>
       <c r="C41" s="201" t="s">
         <v>48</v>
       </c>
@@ -6878,7 +6919,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="502"/>
+      <c r="B42" s="501"/>
       <c r="C42" s="204"/>
       <c r="D42" s="205"/>
       <c r="E42" s="185"/>
@@ -6893,7 +6934,7 @@
       <c r="N42" s="208"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="502"/>
+      <c r="B43" s="501"/>
       <c r="C43" s="204"/>
       <c r="D43" s="209"/>
       <c r="E43" s="185"/>
@@ -6908,7 +6949,7 @@
       <c r="N43" s="208"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="502"/>
+      <c r="B44" s="501"/>
       <c r="C44" s="204"/>
       <c r="D44" s="210"/>
       <c r="E44" s="185"/>
@@ -6930,6 +6971,18 @@
     <sortCondition ref="B9:B16"/>
   </sortState>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="B39:B44"/>
@@ -6938,18 +6991,6 @@
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.35433070866141736" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -6990,10 +7031,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -7005,50 +7046,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44647</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -7070,7 +7111,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -7127,8 +7168,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -7166,8 +7207,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -7252,8 +7293,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -7325,8 +7366,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -7442,8 +7483,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -7633,8 +7674,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="476"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -7703,8 +7744,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="477"/>
-      <c r="P20" s="477"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -7738,8 +7779,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="478"/>
-      <c r="P21" s="478"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -7847,8 +7888,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="480"/>
-      <c r="P24" s="480"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -8288,10 +8329,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="472" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="472"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>19776.46</v>
@@ -8424,11 +8465,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:H2"/>
@@ -8436,13 +8479,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -8483,10 +8524,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -8498,50 +8539,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44682</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -8563,7 +8604,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -8620,8 +8661,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -8659,8 +8700,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -8745,8 +8786,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -8826,8 +8867,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -8943,8 +8984,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -9134,8 +9175,8 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="476"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -9220,8 +9261,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="477"/>
-      <c r="P20" s="477"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -9255,8 +9296,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="478"/>
-      <c r="P21" s="478"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -9364,8 +9405,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="480"/>
-      <c r="P24" s="480"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -9813,10 +9854,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="472" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="472"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>33269.280000000006</v>
@@ -9855,7 +9896,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="503" t="s">
+      <c r="B40" s="502" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -9876,7 +9917,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="503"/>
+      <c r="B41" s="502"/>
       <c r="C41" s="204"/>
       <c r="D41" s="249"/>
       <c r="E41" s="250"/>
@@ -9955,17 +9996,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -9975,6 +10005,17 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="F37:G37"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <pageMargins left="0.43307086614173229" right="0.19685039370078741" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -10015,10 +10056,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -10030,50 +10071,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44710</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -10095,7 +10136,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -10152,8 +10193,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -10191,8 +10232,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -10281,8 +10322,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="193"/>
       <c r="R8" s="1"/>
     </row>
@@ -10368,8 +10409,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="193"/>
       <c r="R10" s="185"/>
     </row>
@@ -10485,8 +10526,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="187"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -10684,8 +10725,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="476"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="187"/>
       <c r="R18" s="185"/>
       <c r="S18" s="53"/>
@@ -10762,8 +10803,8 @@
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="O20" s="477"/>
-      <c r="P20" s="477"/>
+      <c r="O20" s="497"/>
+      <c r="P20" s="497"/>
       <c r="Q20" s="187"/>
       <c r="R20" s="189"/>
       <c r="S20" s="76"/>
@@ -10797,8 +10838,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O21" s="478"/>
-      <c r="P21" s="478"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -10910,8 +10951,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O24" s="480"/>
-      <c r="P24" s="480"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="187"/>
       <c r="R24" s="185"/>
     </row>
@@ -11372,10 +11413,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="472" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="472"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>41344.509999999995</v>
@@ -11414,7 +11455,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="503" t="s">
+      <c r="B40" s="502" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="254" t="s">
@@ -11435,7 +11476,7 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="503"/>
+      <c r="B41" s="502"/>
       <c r="C41" s="291" t="s">
         <v>48</v>
       </c>
@@ -11454,7 +11495,7 @@
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="503"/>
+      <c r="B42" s="502"/>
       <c r="C42" s="281" t="s">
         <v>48</v>
       </c>
@@ -11477,16 +11518,16 @@
       <c r="C43" s="287" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="504" t="s">
+      <c r="D43" s="503" t="s">
         <v>79</v>
       </c>
-      <c r="E43" s="505"/>
-      <c r="F43" s="505"/>
-      <c r="G43" s="505"/>
-      <c r="H43" s="505"/>
-      <c r="I43" s="505"/>
-      <c r="J43" s="505"/>
-      <c r="K43" s="506"/>
+      <c r="E43" s="504"/>
+      <c r="F43" s="504"/>
+      <c r="G43" s="504"/>
+      <c r="H43" s="504"/>
+      <c r="I43" s="504"/>
+      <c r="J43" s="504"/>
+      <c r="K43" s="505"/>
       <c r="L43" s="206"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
@@ -11494,14 +11535,14 @@
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
       <c r="C44" s="204"/>
-      <c r="D44" s="507"/>
-      <c r="E44" s="508"/>
-      <c r="F44" s="508"/>
-      <c r="G44" s="508"/>
-      <c r="H44" s="508"/>
-      <c r="I44" s="508"/>
-      <c r="J44" s="508"/>
-      <c r="K44" s="509"/>
+      <c r="D44" s="506"/>
+      <c r="E44" s="507"/>
+      <c r="F44" s="507"/>
+      <c r="G44" s="507"/>
+      <c r="H44" s="507"/>
+      <c r="I44" s="507"/>
+      <c r="J44" s="507"/>
+      <c r="K44" s="508"/>
       <c r="L44" s="206"/>
       <c r="M44" s="207"/>
       <c r="N44" s="208"/>
@@ -11541,14 +11582,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D43:K44"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="F37:G37"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -11562,6 +11595,14 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="D43:K44"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.11811023622047245" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" r:id="rId1"/>
@@ -11602,10 +11643,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -11617,50 +11658,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44745</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="25.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>105</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -11682,7 +11723,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -11739,8 +11780,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -11778,8 +11819,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -11864,8 +11905,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -11951,8 +11992,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="300"/>
       <c r="R10" s="185"/>
     </row>
@@ -12076,8 +12117,8 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="331" t="s">
         <v>91</v>
       </c>
@@ -12285,8 +12326,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O18" s="476"/>
-      <c r="P18" s="476"/>
+      <c r="O18" s="496"/>
+      <c r="P18" s="496"/>
       <c r="Q18" s="333" t="s">
         <v>92</v>
       </c>
@@ -12373,8 +12414,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="515"/>
-      <c r="P20" s="515"/>
+      <c r="O20" s="514"/>
+      <c r="P20" s="514"/>
       <c r="Q20" s="308" t="s">
         <v>89</v>
       </c>
@@ -12410,8 +12451,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O21" s="478"/>
-      <c r="P21" s="478"/>
+      <c r="O21" s="498"/>
+      <c r="P21" s="498"/>
       <c r="Q21" s="187"/>
       <c r="R21" s="185"/>
       <c r="S21" s="53"/>
@@ -12519,8 +12560,8 @@
         <f t="shared" si="3"/>
         <v>-81</v>
       </c>
-      <c r="O24" s="480"/>
-      <c r="P24" s="480"/>
+      <c r="O24" s="500"/>
+      <c r="P24" s="500"/>
       <c r="Q24" s="334" t="s">
         <v>90</v>
       </c>
@@ -12972,10 +13013,10 @@
     <row r="37" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="126"/>
       <c r="D37" s="128"/>
-      <c r="F37" s="472" t="s">
+      <c r="F37" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="472"/>
+      <c r="G37" s="492"/>
       <c r="H37" s="129">
         <f>SUM(H5:H29)</f>
         <v>34604.840000000004</v>
@@ -13014,7 +13055,7 @@
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:18" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="512" t="s">
+      <c r="B40" s="511" t="s">
         <v>58</v>
       </c>
       <c r="C40" s="356" t="s">
@@ -13035,26 +13076,26 @@
       <c r="N40" s="212"/>
     </row>
     <row r="41" spans="2:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="513"/>
+      <c r="B41" s="512"/>
       <c r="C41" s="357" t="s">
         <v>48</v>
       </c>
-      <c r="D41" s="510" t="s">
+      <c r="D41" s="509" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="510"/>
-      <c r="F41" s="510"/>
-      <c r="G41" s="510"/>
-      <c r="H41" s="510"/>
-      <c r="I41" s="510"/>
-      <c r="J41" s="510"/>
-      <c r="K41" s="510"/>
-      <c r="L41" s="510"/>
+      <c r="E41" s="509"/>
+      <c r="F41" s="509"/>
+      <c r="G41" s="509"/>
+      <c r="H41" s="509"/>
+      <c r="I41" s="509"/>
+      <c r="J41" s="509"/>
+      <c r="K41" s="509"/>
+      <c r="L41" s="509"/>
       <c r="M41" s="211"/>
       <c r="N41" s="212"/>
     </row>
     <row r="42" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="513"/>
+      <c r="B42" s="512"/>
       <c r="C42" s="358" t="s">
         <v>49</v>
       </c>
@@ -13073,26 +13114,26 @@
       <c r="N42" s="212"/>
     </row>
     <row r="43" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="513"/>
+      <c r="B43" s="512"/>
       <c r="C43" s="359" t="s">
         <v>50</v>
       </c>
-      <c r="D43" s="511" t="s">
+      <c r="D43" s="510" t="s">
         <v>88</v>
       </c>
-      <c r="E43" s="511"/>
-      <c r="F43" s="511"/>
-      <c r="G43" s="511"/>
-      <c r="H43" s="511"/>
-      <c r="I43" s="511"/>
-      <c r="J43" s="511"/>
-      <c r="K43" s="511"/>
-      <c r="L43" s="511"/>
+      <c r="E43" s="510"/>
+      <c r="F43" s="510"/>
+      <c r="G43" s="510"/>
+      <c r="H43" s="510"/>
+      <c r="I43" s="510"/>
+      <c r="J43" s="510"/>
+      <c r="K43" s="510"/>
+      <c r="L43" s="510"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
     </row>
     <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="513"/>
+      <c r="B44" s="512"/>
       <c r="C44" s="360" t="s">
         <v>51</v>
       </c>
@@ -13111,7 +13152,7 @@
       <c r="N44" s="208"/>
     </row>
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="513"/>
+      <c r="B45" s="512"/>
       <c r="C45" s="361" t="s">
         <v>54</v>
       </c>
@@ -13133,7 +13174,7 @@
       <c r="Q45" s="376"/>
     </row>
     <row r="46" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="513"/>
+      <c r="B46" s="512"/>
       <c r="C46" s="362" t="s">
         <v>94</v>
       </c>
@@ -13152,7 +13193,7 @@
       <c r="N46" s="208"/>
     </row>
     <row r="47" spans="2:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="514"/>
+      <c r="B47" s="513"/>
       <c r="C47" s="363" t="s">
         <v>98</v>
       </c>
@@ -13173,6 +13214,15 @@
     <sortCondition ref="B5:B33"/>
   </sortState>
   <mergeCells count="22">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="D41:L41"/>
+    <mergeCell ref="D43:L43"/>
+    <mergeCell ref="B40:B47"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O24:P24"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -13186,15 +13236,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="D41:L41"/>
-    <mergeCell ref="D43:L43"/>
-    <mergeCell ref="B40:B47"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O24:P24"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -13235,10 +13276,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -13250,50 +13291,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44773</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -13315,7 +13356,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -13372,8 +13413,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
@@ -13411,8 +13452,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -13497,8 +13538,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
@@ -13584,8 +13625,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -13709,8 +13750,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -13994,8 +14035,8 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O20" s="476"/>
-      <c r="P20" s="476"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="496"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -14080,8 +14121,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="477"/>
-      <c r="P22" s="477"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="497"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -14115,8 +14156,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="478"/>
-      <c r="P23" s="478"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -14224,8 +14265,8 @@
         <f t="shared" si="10"/>
         <v>-2</v>
       </c>
-      <c r="O26" s="480"/>
-      <c r="P26" s="480"/>
+      <c r="O26" s="500"/>
+      <c r="P26" s="500"/>
       <c r="Q26" s="381" t="s">
         <v>48</v>
       </c>
@@ -14695,10 +14736,10 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="472" t="s">
+      <c r="F39" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="472"/>
+      <c r="G39" s="492"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
         <v>64021.82</v>
@@ -14786,15 +14827,15 @@
     <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
       <c r="C45" s="204"/>
-      <c r="D45" s="516"/>
-      <c r="E45" s="516"/>
-      <c r="F45" s="516"/>
-      <c r="G45" s="516"/>
-      <c r="H45" s="516"/>
-      <c r="I45" s="516"/>
-      <c r="J45" s="516"/>
-      <c r="K45" s="516"/>
-      <c r="L45" s="516"/>
+      <c r="D45" s="515"/>
+      <c r="E45" s="515"/>
+      <c r="F45" s="515"/>
+      <c r="G45" s="515"/>
+      <c r="H45" s="515"/>
+      <c r="I45" s="515"/>
+      <c r="J45" s="515"/>
+      <c r="K45" s="515"/>
+      <c r="L45" s="515"/>
       <c r="M45" s="211"/>
       <c r="N45" s="212"/>
     </row>
@@ -14861,6 +14902,13 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D45:L45"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -14874,13 +14922,6 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -14915,32 +14956,32 @@
   <sheetData>
     <row r="1" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="519" t="s">
+      <c r="C2" s="525" t="s">
         <v>113</v>
       </c>
-      <c r="D2" s="520"/>
-      <c r="E2" s="520"/>
-      <c r="F2" s="520"/>
-      <c r="G2" s="520"/>
-      <c r="H2" s="521"/>
+      <c r="D2" s="526"/>
+      <c r="E2" s="526"/>
+      <c r="F2" s="526"/>
+      <c r="G2" s="526"/>
+      <c r="H2" s="527"/>
     </row>
     <row r="3" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="409"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C4" s="409"/>
-      <c r="D4" s="525" t="s">
+      <c r="D4" s="516" t="s">
         <v>117</v>
       </c>
-      <c r="E4" s="526"/>
-      <c r="G4" s="525" t="s">
+      <c r="E4" s="517"/>
+      <c r="G4" s="516" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="526"/>
-      <c r="J4" s="525" t="s">
+      <c r="H4" s="517"/>
+      <c r="J4" s="516" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="526"/>
+      <c r="K4" s="517"/>
     </row>
     <row r="5" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="412"/>
@@ -14966,7 +15007,7 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="527" t="s">
+      <c r="B6" s="518" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="421" t="s">
@@ -14992,25 +15033,25 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="38.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="527"/>
+      <c r="B7" s="518"/>
       <c r="C7" s="422" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="524" t="s">
+      <c r="D7" s="530" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="523"/>
-      <c r="G7" s="522" t="s">
+      <c r="E7" s="529"/>
+      <c r="G7" s="528" t="s">
         <v>128</v>
       </c>
-      <c r="H7" s="523"/>
+      <c r="H7" s="529"/>
       <c r="J7" s="438" t="s">
         <v>129</v>
       </c>
       <c r="K7" s="140"/>
     </row>
     <row r="8" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="528" t="s">
+      <c r="B8" s="519" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="423" t="s">
@@ -15028,7 +15069,7 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="46.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="529"/>
+      <c r="B9" s="520"/>
       <c r="C9" s="424" t="s">
         <v>121</v>
       </c>
@@ -15040,7 +15081,7 @@
       <c r="K9" s="378"/>
     </row>
     <row r="10" spans="2:11" ht="26.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="530" t="s">
+      <c r="B10" s="521" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="430" t="s">
@@ -15062,7 +15103,7 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="57" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="531"/>
+      <c r="B11" s="522"/>
       <c r="C11" s="429" t="s">
         <v>123</v>
       </c>
@@ -15074,7 +15115,7 @@
       <c r="K11" s="378"/>
     </row>
     <row r="12" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="517" t="s">
+      <c r="B12" s="523" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="433" t="s">
@@ -15092,7 +15133,7 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="518"/>
+      <c r="B13" s="524"/>
       <c r="C13" s="434" t="s">
         <v>125</v>
       </c>
@@ -15153,16 +15194,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -15176,8 +15217,8 @@
   </sheetPr>
   <dimension ref="B1:X50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:I41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q40" sqref="Q40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15202,10 +15243,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="483" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="483"/>
+      <c r="B1" s="472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="472"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -15217,50 +15258,50 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="484">
+      <c r="B2" s="473">
         <v>44801</v>
       </c>
-      <c r="C2" s="485"/>
-      <c r="F2" s="486" t="s">
+      <c r="C2" s="474"/>
+      <c r="F2" s="475" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="486"/>
-      <c r="H2" s="486"/>
+      <c r="G2" s="475"/>
+      <c r="H2" s="475"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
-      <c r="K2" s="501" t="s">
+      <c r="K2" s="490" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="501"/>
+      <c r="L2" s="490"/>
       <c r="M2" s="8"/>
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="11"/>
-      <c r="C3" s="487" t="s">
+      <c r="C3" s="476" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="488"/>
+      <c r="D3" s="477"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="489" t="s">
+      <c r="F3" s="478" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="490"/>
+      <c r="G3" s="479"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="491" t="s">
+      <c r="I3" s="480" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="13"/>
-      <c r="K3" s="501"/>
-      <c r="L3" s="501"/>
-      <c r="M3" s="493" t="s">
+      <c r="K3" s="490"/>
+      <c r="L3" s="490"/>
+      <c r="M3" s="482" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="494"/>
-      <c r="O3" s="495" t="s">
+      <c r="N3" s="483"/>
+      <c r="O3" s="484" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="496"/>
+      <c r="P3" s="485"/>
     </row>
     <row r="4" spans="2:24" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
@@ -15282,7 +15323,7 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="492"/>
+      <c r="I4" s="481"/>
       <c r="J4" s="13"/>
       <c r="K4" s="18" t="s">
         <v>10</v>
@@ -15307,15 +15348,15 @@
       <c r="B5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="442">
+      <c r="C5" s="441">
         <v>563.71</v>
       </c>
-      <c r="D5" s="443">
+      <c r="D5" s="442">
         <v>47</v>
       </c>
       <c r="E5" s="255"/>
-      <c r="F5" s="442"/>
-      <c r="G5" s="444"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="443"/>
       <c r="H5" s="29">
         <f t="shared" ref="H5:I36" si="0">F5+C5</f>
         <v>563.71</v>
@@ -15339,22 +15380,22 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="497"/>
-      <c r="P5" s="498"/>
+      <c r="O5" s="486"/>
+      <c r="P5" s="487"/>
     </row>
     <row r="6" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="445">
+      <c r="C6" s="444">
         <v>541.28</v>
       </c>
-      <c r="D6" s="443">
+      <c r="D6" s="442">
         <v>47</v>
       </c>
       <c r="E6" s="255"/>
-      <c r="F6" s="442"/>
-      <c r="G6" s="444"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="443"/>
       <c r="H6" s="29">
         <f t="shared" si="0"/>
         <v>541.28</v>
@@ -15378,8 +15419,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="499"/>
-      <c r="P6" s="500"/>
+      <c r="O6" s="488"/>
+      <c r="P6" s="489"/>
       <c r="S6" s="37"/>
       <c r="T6" s="38"/>
       <c r="U6" s="39"/>
@@ -15391,11 +15432,11 @@
       <c r="B7" s="264" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="442"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="442"/>
-      <c r="F7" s="442"/>
-      <c r="G7" s="444"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="442"/>
+      <c r="E7" s="441"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="443"/>
       <c r="H7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15424,15 +15465,15 @@
       <c r="B8" s="264" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="442">
+      <c r="C8" s="441">
         <v>167.96</v>
       </c>
-      <c r="D8" s="443">
+      <c r="D8" s="442">
         <v>9</v>
       </c>
       <c r="E8" s="255"/>
-      <c r="F8" s="442"/>
-      <c r="G8" s="444"/>
+      <c r="F8" s="441"/>
+      <c r="G8" s="443"/>
       <c r="H8" s="34">
         <f t="shared" si="0"/>
         <v>167.96</v>
@@ -15456,20 +15497,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O8" s="481"/>
-      <c r="P8" s="481"/>
+      <c r="O8" s="470"/>
+      <c r="P8" s="470"/>
       <c r="Q8" s="300"/>
       <c r="R8" s="185"/>
     </row>
-    <row r="9" spans="2:24" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:24" ht="17.25" hidden="1" x14ac:dyDescent="0.3">
       <c r="B9" s="264" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="442"/>
-      <c r="D9" s="443"/>
-      <c r="E9" s="446"/>
-      <c r="F9" s="442"/>
-      <c r="G9" s="444"/>
+      <c r="C9" s="441"/>
+      <c r="D9" s="442"/>
+      <c r="E9" s="445"/>
+      <c r="F9" s="441"/>
+      <c r="G9" s="443"/>
       <c r="H9" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15479,8 +15520,8 @@
         <v>0</v>
       </c>
       <c r="J9" s="31"/>
-      <c r="K9" s="467"/>
-      <c r="L9" s="468"/>
+      <c r="K9" s="466"/>
+      <c r="L9" s="467"/>
       <c r="M9" s="289">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -15498,15 +15539,15 @@
       <c r="B10" s="264" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="442">
+      <c r="C10" s="441">
         <v>100</v>
       </c>
-      <c r="D10" s="443">
+      <c r="D10" s="442">
         <v>10</v>
       </c>
       <c r="E10" s="255"/>
-      <c r="F10" s="442"/>
-      <c r="G10" s="444"/>
+      <c r="F10" s="441"/>
+      <c r="G10" s="443"/>
       <c r="H10" s="34">
         <f t="shared" si="0"/>
         <v>100</v>
@@ -15530,8 +15571,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="473"/>
-      <c r="P10" s="473"/>
+      <c r="O10" s="493"/>
+      <c r="P10" s="493"/>
       <c r="Q10" s="379"/>
       <c r="R10" s="185"/>
     </row>
@@ -15539,13 +15580,13 @@
       <c r="B11" s="264" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="442"/>
-      <c r="D11" s="443"/>
+      <c r="C11" s="441"/>
+      <c r="D11" s="442"/>
       <c r="E11" s="255"/>
-      <c r="F11" s="442">
+      <c r="F11" s="441">
         <v>120</v>
       </c>
-      <c r="G11" s="444">
+      <c r="G11" s="443">
         <v>12</v>
       </c>
       <c r="H11" s="34">
@@ -15580,13 +15621,13 @@
       <c r="B12" s="364" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="447"/>
-      <c r="D12" s="443"/>
+      <c r="C12" s="446"/>
+      <c r="D12" s="442"/>
       <c r="E12" s="255"/>
-      <c r="F12" s="447">
+      <c r="F12" s="446">
         <v>756.97</v>
       </c>
-      <c r="G12" s="444">
+      <c r="G12" s="443">
         <v>24</v>
       </c>
       <c r="H12" s="60">
@@ -15623,15 +15664,15 @@
       <c r="B13" s="264" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="442">
+      <c r="C13" s="441">
         <v>3881.73</v>
       </c>
-      <c r="D13" s="443">
+      <c r="D13" s="442">
         <v>136</v>
       </c>
       <c r="E13" s="255"/>
-      <c r="F13" s="442"/>
-      <c r="G13" s="444"/>
+      <c r="F13" s="441"/>
+      <c r="G13" s="443"/>
       <c r="H13" s="63">
         <f t="shared" si="0"/>
         <v>3881.73</v>
@@ -15644,8 +15685,8 @@
       <c r="K13" s="51">
         <v>3881.59</v>
       </c>
-      <c r="L13" s="532">
-        <v>30</v>
+      <c r="L13" s="52">
+        <v>136</v>
       </c>
       <c r="M13" s="220">
         <f t="shared" si="1"/>
@@ -15653,10 +15694,10 @@
       </c>
       <c r="N13" s="270">
         <f t="shared" si="1"/>
-        <v>-106</v>
-      </c>
-      <c r="O13" s="475"/>
-      <c r="P13" s="475"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="495"/>
+      <c r="P13" s="495"/>
       <c r="Q13" s="190"/>
       <c r="R13" s="188"/>
       <c r="S13" s="64"/>
@@ -15666,11 +15707,11 @@
       <c r="B14" s="264" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="442"/>
-      <c r="D14" s="443"/>
+      <c r="C14" s="441"/>
+      <c r="D14" s="442"/>
       <c r="E14" s="255"/>
-      <c r="F14" s="442"/>
-      <c r="G14" s="444"/>
+      <c r="F14" s="441"/>
+      <c r="G14" s="443"/>
       <c r="H14" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15701,15 +15742,15 @@
       <c r="B15" s="264" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="442">
+      <c r="C15" s="441">
         <v>428</v>
       </c>
-      <c r="D15" s="443">
+      <c r="D15" s="442">
         <v>16</v>
       </c>
       <c r="E15" s="255"/>
-      <c r="F15" s="442"/>
-      <c r="G15" s="444"/>
+      <c r="F15" s="441"/>
+      <c r="G15" s="443"/>
       <c r="H15" s="63">
         <f t="shared" si="0"/>
         <v>428</v>
@@ -15744,11 +15785,11 @@
       <c r="B16" s="264" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="442"/>
-      <c r="D16" s="443"/>
+      <c r="C16" s="441"/>
+      <c r="D16" s="442"/>
       <c r="E16" s="255"/>
-      <c r="F16" s="442"/>
-      <c r="G16" s="444"/>
+      <c r="F16" s="441"/>
+      <c r="G16" s="443"/>
       <c r="H16" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15779,15 +15820,15 @@
       <c r="B17" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="442">
+      <c r="C17" s="441">
         <v>3364.18</v>
       </c>
-      <c r="D17" s="443">
+      <c r="D17" s="442">
         <v>126</v>
       </c>
       <c r="E17" s="255"/>
-      <c r="F17" s="442"/>
-      <c r="G17" s="444"/>
+      <c r="F17" s="441"/>
+      <c r="G17" s="443"/>
       <c r="H17" s="63">
         <f t="shared" si="0"/>
         <v>3364.18</v>
@@ -15800,8 +15841,8 @@
       <c r="K17" s="51">
         <v>3364.18</v>
       </c>
-      <c r="L17" s="532">
-        <v>40</v>
+      <c r="L17" s="52">
+        <v>126</v>
       </c>
       <c r="M17" s="191">
         <f t="shared" si="1"/>
@@ -15809,7 +15850,7 @@
       </c>
       <c r="N17" s="270">
         <f t="shared" si="1"/>
-        <v>-86</v>
+        <v>0</v>
       </c>
       <c r="O17" s="67"/>
       <c r="P17" s="173"/>
@@ -15822,15 +15863,15 @@
       <c r="B18" s="264" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="442">
+      <c r="C18" s="441">
         <v>626.66</v>
       </c>
-      <c r="D18" s="533">
+      <c r="D18" s="448">
         <v>35</v>
       </c>
       <c r="E18" s="255"/>
-      <c r="F18" s="442"/>
-      <c r="G18" s="444"/>
+      <c r="F18" s="441"/>
+      <c r="G18" s="443"/>
       <c r="H18" s="63">
         <f t="shared" si="0"/>
         <v>626.66</v>
@@ -15846,20 +15887,20 @@
       <c r="L18" s="52">
         <v>35</v>
       </c>
-      <c r="M18" s="191">
+      <c r="M18" s="532">
         <f t="shared" si="1"/>
         <v>-18.559999999999945</v>
       </c>
-      <c r="N18" s="270">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="69"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="534" t="s">
-        <v>131</v>
-      </c>
-      <c r="R18" s="317"/>
+      <c r="N18" s="316">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="533"/>
+      <c r="P18" s="534"/>
+      <c r="Q18" s="469" t="s">
+        <v>47</v>
+      </c>
+      <c r="R18" s="185"/>
       <c r="S18" s="53"/>
       <c r="T18" s="53"/>
     </row>
@@ -15867,15 +15908,15 @@
       <c r="B19" s="264" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="442">
+      <c r="C19" s="441">
         <v>415.93</v>
       </c>
-      <c r="D19" s="443">
+      <c r="D19" s="442">
         <v>17</v>
       </c>
       <c r="E19" s="255"/>
-      <c r="F19" s="442"/>
-      <c r="G19" s="444"/>
+      <c r="F19" s="441"/>
+      <c r="G19" s="443"/>
       <c r="H19" s="63">
         <f t="shared" si="0"/>
         <v>415.93</v>
@@ -15910,13 +15951,13 @@
       <c r="B20" s="264" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="448"/>
-      <c r="D20" s="449"/>
+      <c r="C20" s="447"/>
+      <c r="D20" s="448"/>
       <c r="E20" s="264"/>
-      <c r="F20" s="448">
+      <c r="F20" s="447">
         <v>594.74</v>
       </c>
-      <c r="G20" s="450">
+      <c r="G20" s="449">
         <v>131</v>
       </c>
       <c r="H20" s="268">
@@ -15942,8 +15983,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20" s="476"/>
-      <c r="P20" s="476"/>
+      <c r="O20" s="496"/>
+      <c r="P20" s="496"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="185"/>
       <c r="S20" s="53"/>
@@ -15953,11 +15994,11 @@
       <c r="B21" s="264" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="442"/>
-      <c r="D21" s="443"/>
+      <c r="C21" s="441"/>
+      <c r="D21" s="442"/>
       <c r="E21" s="255"/>
-      <c r="F21" s="442"/>
-      <c r="G21" s="444"/>
+      <c r="F21" s="441"/>
+      <c r="G21" s="443"/>
       <c r="H21" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -15988,15 +16029,15 @@
       <c r="B22" s="364" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="442">
+      <c r="C22" s="441">
         <v>4649.1099999999997</v>
       </c>
-      <c r="D22" s="443">
+      <c r="D22" s="442">
         <v>185</v>
       </c>
       <c r="E22" s="255"/>
-      <c r="F22" s="442"/>
-      <c r="G22" s="444"/>
+      <c r="F22" s="441"/>
+      <c r="G22" s="443"/>
       <c r="H22" s="63">
         <f t="shared" si="0"/>
         <v>4649.1099999999997</v>
@@ -16020,8 +16061,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22" s="477"/>
-      <c r="P22" s="477"/>
+      <c r="O22" s="497"/>
+      <c r="P22" s="497"/>
       <c r="Q22" s="190"/>
       <c r="R22" s="189"/>
       <c r="S22" s="76"/>
@@ -16031,11 +16072,11 @@
       <c r="B23" s="264" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="442"/>
-      <c r="D23" s="443"/>
+      <c r="C23" s="441"/>
+      <c r="D23" s="442"/>
       <c r="E23" s="255"/>
-      <c r="F23" s="442"/>
-      <c r="G23" s="444"/>
+      <c r="F23" s="441"/>
+      <c r="G23" s="443"/>
       <c r="H23" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16055,8 +16096,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O23" s="478"/>
-      <c r="P23" s="478"/>
+      <c r="O23" s="498"/>
+      <c r="P23" s="498"/>
       <c r="Q23" s="190"/>
       <c r="R23" s="185"/>
       <c r="S23" s="53"/>
@@ -16066,11 +16107,11 @@
       <c r="B24" s="264" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="442"/>
-      <c r="D24" s="443"/>
+      <c r="C24" s="441"/>
+      <c r="D24" s="442"/>
       <c r="E24" s="255"/>
-      <c r="F24" s="442"/>
-      <c r="G24" s="444"/>
+      <c r="F24" s="441"/>
+      <c r="G24" s="443"/>
       <c r="H24" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16099,11 +16140,11 @@
       <c r="B25" s="264" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="442"/>
-      <c r="D25" s="443"/>
+      <c r="C25" s="441"/>
+      <c r="D25" s="442"/>
       <c r="E25" s="255"/>
-      <c r="F25" s="442"/>
-      <c r="G25" s="444"/>
+      <c r="F25" s="441"/>
+      <c r="G25" s="443"/>
       <c r="H25" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16132,15 +16173,15 @@
       <c r="B26" s="322" t="s">
         <v>27</v>
       </c>
-      <c r="C26" s="442">
+      <c r="C26" s="441">
         <v>694.22</v>
       </c>
-      <c r="D26" s="443">
+      <c r="D26" s="442">
         <v>23</v>
       </c>
       <c r="E26" s="255"/>
-      <c r="F26" s="442"/>
-      <c r="G26" s="444"/>
+      <c r="F26" s="441"/>
+      <c r="G26" s="443"/>
       <c r="H26" s="63">
         <f t="shared" si="0"/>
         <v>694.22</v>
@@ -16156,35 +16197,37 @@
       <c r="L26" s="52">
         <v>22</v>
       </c>
-      <c r="M26" s="315">
+      <c r="M26" s="247">
         <f>K26-H26</f>
         <v>-9.8999999999999773</v>
       </c>
-      <c r="N26" s="316">
+      <c r="N26" s="248">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
       <c r="O26" s="535"/>
       <c r="P26" s="535"/>
-      <c r="Q26" s="335"/>
+      <c r="Q26" s="536" t="s">
+        <v>48</v>
+      </c>
       <c r="R26" s="185"/>
     </row>
-    <row r="27" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:20" ht="18" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="321" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="442"/>
-      <c r="D27" s="443"/>
+      <c r="C27" s="441"/>
+      <c r="D27" s="442"/>
       <c r="E27" s="255"/>
-      <c r="F27" s="451">
-        <v>2.74</v>
-      </c>
-      <c r="G27" s="452">
+      <c r="F27" s="450">
+        <v>0</v>
+      </c>
+      <c r="G27" s="451">
         <v>0</v>
       </c>
       <c r="H27" s="60">
         <f t="shared" si="0"/>
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="I27" s="88">
         <f t="shared" si="0"/>
@@ -16195,7 +16238,7 @@
       <c r="L27" s="52"/>
       <c r="M27" s="220">
         <f t="shared" si="2"/>
-        <v>-2.74</v>
+        <v>0</v>
       </c>
       <c r="N27" s="270">
         <f t="shared" si="2"/>
@@ -16210,11 +16253,11 @@
       <c r="B28" s="364" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="442"/>
-      <c r="D28" s="443"/>
+      <c r="C28" s="441"/>
+      <c r="D28" s="442"/>
       <c r="E28" s="255"/>
-      <c r="F28" s="451"/>
-      <c r="G28" s="452"/>
+      <c r="F28" s="450"/>
+      <c r="G28" s="451"/>
       <c r="H28" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16243,13 +16286,13 @@
       <c r="B29" s="435" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="442"/>
-      <c r="D29" s="443"/>
+      <c r="C29" s="441"/>
+      <c r="D29" s="442"/>
       <c r="E29" s="255"/>
-      <c r="F29" s="451">
+      <c r="F29" s="450">
         <v>18968.2</v>
       </c>
-      <c r="G29" s="452">
+      <c r="G29" s="451">
         <v>21</v>
       </c>
       <c r="H29" s="60">
@@ -16261,19 +16304,21 @@
         <v>21</v>
       </c>
       <c r="J29" s="31"/>
-      <c r="K29" s="469"/>
-      <c r="L29" s="468"/>
-      <c r="M29" s="470">
+      <c r="K29" s="468"/>
+      <c r="L29" s="467"/>
+      <c r="M29" s="538">
         <f t="shared" si="2"/>
         <v>-18968.2</v>
       </c>
-      <c r="N29" s="290">
+      <c r="N29" s="325">
         <f t="shared" si="2"/>
         <v>-21</v>
       </c>
-      <c r="O29" s="223"/>
-      <c r="P29" s="224"/>
-      <c r="Q29" s="441"/>
+      <c r="O29" s="539"/>
+      <c r="P29" s="540"/>
+      <c r="Q29" s="541" t="s">
+        <v>49</v>
+      </c>
       <c r="R29" s="185"/>
       <c r="S29" s="53"/>
     </row>
@@ -16281,11 +16326,11 @@
       <c r="B30" s="264" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="442"/>
-      <c r="D30" s="443"/>
+      <c r="C30" s="441"/>
+      <c r="D30" s="442"/>
       <c r="E30" s="255"/>
-      <c r="F30" s="451"/>
-      <c r="G30" s="452"/>
+      <c r="F30" s="450"/>
+      <c r="G30" s="451"/>
       <c r="H30" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16310,22 +16355,22 @@
       <c r="Q30" s="194"/>
       <c r="R30" s="185"/>
     </row>
-    <row r="31" spans="2:20" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:20" ht="20.25" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="365" t="s">
         <v>73</v>
       </c>
-      <c r="C31" s="453">
-        <v>4.59</v>
-      </c>
-      <c r="D31" s="454">
-        <v>0</v>
-      </c>
-      <c r="E31" s="455"/>
-      <c r="F31" s="453"/>
-      <c r="G31" s="456"/>
+      <c r="C31" s="452">
+        <v>0</v>
+      </c>
+      <c r="D31" s="453">
+        <v>0</v>
+      </c>
+      <c r="E31" s="454"/>
+      <c r="F31" s="452"/>
+      <c r="G31" s="455"/>
       <c r="H31" s="60">
         <f t="shared" si="0"/>
-        <v>4.59</v>
+        <v>0</v>
       </c>
       <c r="I31" s="88">
         <f t="shared" si="0"/>
@@ -16336,7 +16381,7 @@
       <c r="L31" s="52"/>
       <c r="M31" s="42">
         <f t="shared" si="2"/>
-        <v>-4.59</v>
+        <v>0</v>
       </c>
       <c r="N31" s="270">
         <f t="shared" si="2"/>
@@ -16351,11 +16396,11 @@
       <c r="B32" s="366" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="453"/>
-      <c r="D32" s="457"/>
-      <c r="E32" s="458"/>
-      <c r="F32" s="453"/>
-      <c r="G32" s="459"/>
+      <c r="C32" s="452"/>
+      <c r="D32" s="456"/>
+      <c r="E32" s="457"/>
+      <c r="F32" s="452"/>
+      <c r="G32" s="458"/>
       <c r="H32" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16384,11 +16429,11 @@
       <c r="B33" s="112" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="442"/>
-      <c r="D33" s="443"/>
-      <c r="E33" s="458"/>
-      <c r="F33" s="453"/>
-      <c r="G33" s="459"/>
+      <c r="C33" s="441"/>
+      <c r="D33" s="442"/>
+      <c r="E33" s="457"/>
+      <c r="F33" s="452"/>
+      <c r="G33" s="458"/>
       <c r="H33" s="60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16414,20 +16459,20 @@
       <c r="R33" s="185"/>
     </row>
     <row r="34" spans="2:18" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="466" t="s">
+      <c r="B34" s="465" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="442">
+      <c r="C34" s="441">
         <v>170</v>
       </c>
-      <c r="D34" s="443">
+      <c r="D34" s="442">
         <v>17</v>
       </c>
-      <c r="E34" s="460"/>
-      <c r="F34" s="453">
+      <c r="E34" s="459"/>
+      <c r="F34" s="452">
         <v>500</v>
       </c>
-      <c r="G34" s="459">
+      <c r="G34" s="458">
         <v>50</v>
       </c>
       <c r="H34" s="60">
@@ -16462,11 +16507,11 @@
       <c r="B35" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="442"/>
-      <c r="D35" s="443"/>
-      <c r="E35" s="460"/>
-      <c r="F35" s="453"/>
-      <c r="G35" s="459"/>
+      <c r="C35" s="441"/>
+      <c r="D35" s="442"/>
+      <c r="E35" s="459"/>
+      <c r="F35" s="452"/>
+      <c r="G35" s="458"/>
       <c r="H35" s="100">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -16495,17 +16540,17 @@
       <c r="B36" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="461">
+      <c r="C36" s="460">
         <v>61.36</v>
       </c>
-      <c r="D36" s="443">
+      <c r="D36" s="442">
         <v>5</v>
       </c>
-      <c r="E36" s="458"/>
-      <c r="F36" s="453">
+      <c r="E36" s="457"/>
+      <c r="F36" s="452">
         <v>73.53</v>
       </c>
-      <c r="G36" s="459">
+      <c r="G36" s="458">
         <v>7</v>
       </c>
       <c r="H36" s="100">
@@ -16540,15 +16585,15 @@
       <c r="B37" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="462">
+      <c r="C37" s="461">
         <v>793.09</v>
       </c>
-      <c r="D37" s="463">
+      <c r="D37" s="462">
         <v>28</v>
       </c>
-      <c r="E37" s="464"/>
-      <c r="F37" s="462"/>
-      <c r="G37" s="465"/>
+      <c r="E37" s="463"/>
+      <c r="F37" s="461"/>
+      <c r="G37" s="464"/>
       <c r="H37" s="401">
         <f t="shared" ref="H37:I38" si="3">F37+C37</f>
         <v>793.09</v>
@@ -16613,13 +16658,13 @@
     <row r="39" spans="2:18" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="126"/>
       <c r="D39" s="128"/>
-      <c r="F39" s="472" t="s">
+      <c r="F39" s="492" t="s">
         <v>43</v>
       </c>
-      <c r="G39" s="472"/>
+      <c r="G39" s="492"/>
       <c r="H39" s="129">
         <f>SUM(H5:H31)</f>
-        <v>35880.020000000004</v>
+        <v>35872.69</v>
       </c>
       <c r="I39" s="130">
         <f>SUM(I5:I31)</f>
@@ -16654,11 +16699,10 @@
       <c r="F41" s="136"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="425" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" s="291"/>
+    <row r="42" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="425" t="s">
+        <v>131</v>
+      </c>
       <c r="D42" s="426"/>
       <c r="E42" s="427"/>
       <c r="F42" s="427"/>
@@ -16671,48 +16715,60 @@
       <c r="M42" s="391"/>
       <c r="N42" s="212"/>
     </row>
-    <row r="43" spans="2:18" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="244"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="392"/>
-      <c r="E43" s="392"/>
-      <c r="F43" s="392"/>
-      <c r="G43" s="392"/>
-      <c r="H43" s="392"/>
-      <c r="I43" s="392"/>
-      <c r="J43" s="392"/>
-      <c r="K43" s="392"/>
+      <c r="C43" s="537" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="548" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="549"/>
+      <c r="F43" s="549"/>
+      <c r="G43" s="549"/>
+      <c r="H43" s="549"/>
+      <c r="I43" s="549"/>
+      <c r="J43" s="549"/>
+      <c r="K43" s="549"/>
       <c r="L43" s="392"/>
       <c r="M43" s="211"/>
       <c r="N43" s="212"/>
     </row>
-    <row r="44" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="244"/>
-      <c r="C44" s="204"/>
-      <c r="D44" s="209"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="185"/>
-      <c r="H44" s="185"/>
-      <c r="I44" s="185"/>
-      <c r="J44" s="185"/>
-      <c r="K44" s="185"/>
+      <c r="C44" s="201" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="545" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="546"/>
+      <c r="F44" s="546"/>
+      <c r="G44" s="547"/>
+      <c r="H44" s="547"/>
+      <c r="I44" s="547"/>
+      <c r="J44" s="547"/>
+      <c r="K44" s="547"/>
       <c r="L44" s="206"/>
       <c r="M44" s="211"/>
       <c r="N44" s="212"/>
     </row>
-    <row r="45" spans="2:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="244"/>
-      <c r="C45" s="204"/>
-      <c r="D45" s="516"/>
-      <c r="E45" s="516"/>
-      <c r="F45" s="516"/>
-      <c r="G45" s="516"/>
-      <c r="H45" s="516"/>
-      <c r="I45" s="516"/>
-      <c r="J45" s="516"/>
-      <c r="K45" s="516"/>
-      <c r="L45" s="516"/>
+      <c r="C45" s="542" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" s="543" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="544"/>
+      <c r="F45" s="544"/>
+      <c r="G45" s="544"/>
+      <c r="H45" s="544"/>
+      <c r="I45" s="544"/>
+      <c r="J45" s="544"/>
+      <c r="K45" s="544"/>
+      <c r="L45" s="531"/>
       <c r="M45" s="211"/>
       <c r="N45" s="212"/>
     </row>
@@ -16778,14 +16834,7 @@
       <c r="B50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D45:L45"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F39:G39"/>
+  <mergeCells count="19">
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
@@ -16799,6 +16848,12 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O6:P6"/>
     <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="F39:G39"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
